--- a/data_results/resultados_otimizacao_pyomo.xlsx
+++ b/data_results/resultados_otimizacao_pyomo.xlsx
@@ -533,7 +533,7 @@
         <v>0.96074149</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01661491</v>
+        <v>0.02281666</v>
       </c>
     </row>
   </sheetData>
